--- a/MyScrumBudget_0.1.4.xlsx
+++ b/MyScrumBudget_0.1.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Documents\GitHub\myscrumbudget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11C1078-16AD-4BF7-987C-774BFA83CEB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26FAD0F0-F06A-4260-901D-8DAFC222CEAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{7EFC9F54-FD64-4CB3-8707-A4DEAF994445}"/>
   </bookViews>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="572">
   <si>
     <t>Team member</t>
   </si>
@@ -1891,6 +1891,9 @@
   </si>
   <si>
     <t>Added NPV calculation and cost-per-person sums</t>
+  </si>
+  <si>
+    <t>Need more months? Unhide columns S-AO</t>
   </si>
 </sst>
 </file>
@@ -2269,7 +2272,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2349,17 +2352,14 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="4" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -2402,6 +2402,13 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2860,12 +2867,13 @@
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" style="2" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="6.7109375" hidden="1" customWidth="1"/>
-    <col min="5" max="41" width="7.7109375" customWidth="1"/>
+    <col min="5" max="18" width="7.7109375" customWidth="1"/>
+    <col min="19" max="41" width="7.7109375" hidden="1" customWidth="1"/>
     <col min="42" max="42" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="37" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="31"/>
@@ -2911,17 +2919,17 @@
       <c r="AP1" s="31"/>
     </row>
     <row r="2" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
+      <c r="A2" s="37"/>
       <c r="B2" s="31"/>
       <c r="C2" s="32"/>
       <c r="D2" s="31"/>
       <c r="E2" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="42">
+      <c r="F2" s="41">
         <v>44013</v>
       </c>
-      <c r="G2" s="43"/>
+      <c r="G2" s="42"/>
       <c r="H2" s="31"/>
       <c r="I2" s="31"/>
       <c r="J2" s="31"/>
@@ -2930,7 +2938,7 @@
       </c>
       <c r="L2" s="38">
         <f>SUM(E109:AO208)</f>
-        <v>1140480</v>
+        <v>622080</v>
       </c>
       <c r="M2" s="39"/>
       <c r="N2" s="31"/>
@@ -2940,7 +2948,7 @@
       </c>
       <c r="Q2" s="38">
         <f>NPV(F3,E209:AO209)</f>
-        <v>915393.21855431981</v>
+        <v>548225.68889234669</v>
       </c>
       <c r="R2" s="39"/>
       <c r="S2" s="31"/>
@@ -2969,17 +2977,17 @@
       <c r="AP2" s="31"/>
     </row>
     <row r="3" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40"/>
+      <c r="A3" s="37"/>
       <c r="B3" s="31"/>
       <c r="C3" s="32"/>
       <c r="D3" s="31"/>
       <c r="E3" s="33" t="s">
         <v>566</v>
       </c>
-      <c r="F3" s="44">
+      <c r="F3" s="43">
         <v>0.02</v>
       </c>
-      <c r="G3" s="45"/>
+      <c r="G3" s="44"/>
       <c r="H3" s="31"/>
       <c r="I3" s="31"/>
       <c r="J3" s="31"/>
@@ -2988,7 +2996,7 @@
       </c>
       <c r="L3" s="38">
         <f>L2/ROUND(DATEDIF(F2,TEXT(EDATE(F2,MAX(SUM(E210:AO210),1)),"MM/DD/YYYY"),"d")/7,0)</f>
-        <v>11880</v>
+        <v>11963.076923076924</v>
       </c>
       <c r="M3" s="39"/>
       <c r="N3" s="34"/>
@@ -3022,7 +3030,7 @@
       <c r="AP3" s="34"/>
     </row>
     <row r="4" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="31"/>
       <c r="C4" s="32"/>
       <c r="D4" s="31"/>
@@ -3039,7 +3047,9 @@
       <c r="O4" s="31"/>
       <c r="P4" s="31"/>
       <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
+      <c r="R4" s="56" t="s">
+        <v>571</v>
+      </c>
       <c r="S4" s="31"/>
       <c r="T4" s="31"/>
       <c r="U4" s="31"/>
@@ -3377,7 +3387,7 @@
         <f t="shared" si="1"/>
         <v>Jul '23</v>
       </c>
-      <c r="AP6" s="37" t="s">
+      <c r="AP6" s="55" t="s">
         <v>568</v>
       </c>
       <c r="AQ6" s="2"/>
@@ -3438,36 +3448,16 @@
       <c r="P7" s="7">
         <v>0.5</v>
       </c>
-      <c r="Q7" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="R7" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="S7" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="T7" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="U7" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="V7" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="W7" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="X7" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="Y7" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="Z7" s="7">
-        <v>0.5</v>
-      </c>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
       <c r="AA7" s="7"/>
       <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
@@ -3485,7 +3475,7 @@
       <c r="AO7" s="7"/>
       <c r="AP7" s="36">
         <f>SUM(E109:AO109)</f>
-        <v>105600</v>
+        <v>57600</v>
       </c>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
@@ -3538,36 +3528,16 @@
       <c r="P8" s="7">
         <v>0.5</v>
       </c>
-      <c r="Q8" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="R8" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="S8" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="T8" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="U8" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="V8" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="W8" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="X8" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="Y8" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="Z8" s="7">
-        <v>0.5</v>
-      </c>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
       <c r="AA8" s="7"/>
       <c r="AB8" s="7"/>
       <c r="AC8" s="7"/>
@@ -3583,9 +3553,9 @@
       <c r="AM8" s="7"/>
       <c r="AN8" s="7"/>
       <c r="AO8" s="7"/>
-      <c r="AP8" s="36">
-        <f t="shared" ref="AP8:AP71" si="2">SUM(E110:AO110)</f>
-        <v>123200</v>
+      <c r="AP8" s="54">
+        <f>IF(SUM(E110:AO110)=0,"",SUM(E110:AO110))</f>
+        <v>67200</v>
       </c>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
@@ -3638,36 +3608,16 @@
       <c r="P9" s="7">
         <v>0.25</v>
       </c>
-      <c r="Q9" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="R9" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="S9" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="T9" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="U9" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="V9" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="W9" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="X9" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="Y9" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="Z9" s="7">
-        <v>0.25</v>
-      </c>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
       <c r="AA9" s="7"/>
       <c r="AB9" s="7"/>
       <c r="AC9" s="7"/>
@@ -3683,9 +3633,9 @@
       <c r="AM9" s="7"/>
       <c r="AN9" s="7"/>
       <c r="AO9" s="7"/>
-      <c r="AP9" s="36">
-        <f t="shared" si="2"/>
-        <v>70400</v>
+      <c r="AP9" s="54">
+        <f t="shared" ref="AP9:AP72" si="2">IF(SUM(E111:AO111)=0,"",SUM(E111:AO111))</f>
+        <v>38400</v>
       </c>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
@@ -3738,36 +3688,16 @@
       <c r="P10" s="7">
         <v>0.8</v>
       </c>
-      <c r="Q10" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="R10" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="S10" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="T10" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="U10" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="V10" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="W10" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="X10" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="Y10" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="Z10" s="7">
-        <v>0.8</v>
-      </c>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
       <c r="AA10" s="7"/>
       <c r="AB10" s="7"/>
       <c r="AC10" s="7"/>
@@ -3783,9 +3713,9 @@
       <c r="AM10" s="7"/>
       <c r="AN10" s="7"/>
       <c r="AO10" s="7"/>
-      <c r="AP10" s="36">
+      <c r="AP10" s="54">
         <f t="shared" si="2"/>
-        <v>225280</v>
+        <v>122880</v>
       </c>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
@@ -3838,36 +3768,16 @@
       <c r="P11" s="7">
         <v>0.8</v>
       </c>
-      <c r="Q11" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="R11" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="S11" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="T11" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="U11" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="V11" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="W11" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="X11" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="Y11" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="Z11" s="7">
-        <v>0.8</v>
-      </c>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
       <c r="AA11" s="7"/>
       <c r="AB11" s="7"/>
       <c r="AC11" s="7"/>
@@ -3883,9 +3793,9 @@
       <c r="AM11" s="7"/>
       <c r="AN11" s="7"/>
       <c r="AO11" s="7"/>
-      <c r="AP11" s="36">
+      <c r="AP11" s="54">
         <f t="shared" si="2"/>
-        <v>225280</v>
+        <v>122880</v>
       </c>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
@@ -3938,36 +3848,16 @@
       <c r="P12" s="7">
         <v>0.8</v>
       </c>
-      <c r="Q12" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="R12" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="S12" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="T12" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="U12" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="V12" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="W12" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="X12" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="Y12" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="Z12" s="7">
-        <v>0.8</v>
-      </c>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
       <c r="AA12" s="7"/>
       <c r="AB12" s="7"/>
       <c r="AC12" s="7"/>
@@ -3983,9 +3873,9 @@
       <c r="AM12" s="7"/>
       <c r="AN12" s="7"/>
       <c r="AO12" s="7"/>
-      <c r="AP12" s="36">
+      <c r="AP12" s="54">
         <f t="shared" si="2"/>
-        <v>225280</v>
+        <v>122880</v>
       </c>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
@@ -4038,36 +3928,16 @@
       <c r="P13" s="7">
         <v>0.5</v>
       </c>
-      <c r="Q13" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="R13" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="S13" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="T13" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="U13" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="V13" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="W13" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="X13" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="Y13" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="Z13" s="7">
-        <v>0.5</v>
-      </c>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
       <c r="AA13" s="7"/>
       <c r="AB13" s="7"/>
       <c r="AC13" s="7"/>
@@ -4083,9 +3953,9 @@
       <c r="AM13" s="7"/>
       <c r="AN13" s="7"/>
       <c r="AO13" s="7"/>
-      <c r="AP13" s="36">
+      <c r="AP13" s="54">
         <f t="shared" si="2"/>
-        <v>105600</v>
+        <v>57600</v>
       </c>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
@@ -4138,36 +4008,16 @@
       <c r="P14" s="7">
         <v>0.05</v>
       </c>
-      <c r="Q14" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="R14" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="S14" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="T14" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="U14" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="V14" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="W14" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="X14" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="Y14" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="Z14" s="7">
-        <v>0.05</v>
-      </c>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
       <c r="AA14" s="7"/>
       <c r="AB14" s="7"/>
       <c r="AC14" s="7"/>
@@ -4183,9 +4033,9 @@
       <c r="AM14" s="7"/>
       <c r="AN14" s="7"/>
       <c r="AO14" s="7"/>
-      <c r="AP14" s="36">
+      <c r="AP14" s="54">
         <f t="shared" si="2"/>
-        <v>14080</v>
+        <v>7680</v>
       </c>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
@@ -4238,36 +4088,16 @@
       <c r="P15" s="7">
         <v>0.05</v>
       </c>
-      <c r="Q15" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="R15" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="S15" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="T15" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="U15" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="V15" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="W15" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="X15" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="Y15" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="Z15" s="7">
-        <v>0.05</v>
-      </c>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
       <c r="AA15" s="7"/>
       <c r="AB15" s="7"/>
       <c r="AC15" s="7"/>
@@ -4283,9 +4113,9 @@
       <c r="AM15" s="7"/>
       <c r="AN15" s="7"/>
       <c r="AO15" s="7"/>
-      <c r="AP15" s="36">
+      <c r="AP15" s="54">
         <f t="shared" si="2"/>
-        <v>10560</v>
+        <v>5760</v>
       </c>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
@@ -4338,36 +4168,16 @@
       <c r="P16" s="7">
         <v>0.05</v>
       </c>
-      <c r="Q16" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="R16" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="S16" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="T16" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="U16" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="V16" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="W16" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="X16" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="Y16" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="Z16" s="7">
-        <v>0.05</v>
-      </c>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
       <c r="AA16" s="7"/>
       <c r="AB16" s="7"/>
       <c r="AC16" s="7"/>
@@ -4383,9 +4193,9 @@
       <c r="AM16" s="7"/>
       <c r="AN16" s="7"/>
       <c r="AO16" s="7"/>
-      <c r="AP16" s="36">
+      <c r="AP16" s="54">
         <f t="shared" si="2"/>
-        <v>17600</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.25">
@@ -4438,36 +4248,16 @@
       <c r="P17" s="7">
         <v>0.05</v>
       </c>
-      <c r="Q17" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="R17" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="S17" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="T17" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="U17" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="V17" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="W17" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="X17" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="Y17" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="Z17" s="7">
-        <v>0.05</v>
-      </c>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
       <c r="AA17" s="7"/>
       <c r="AB17" s="7"/>
       <c r="AC17" s="7"/>
@@ -4483,9 +4273,9 @@
       <c r="AM17" s="7"/>
       <c r="AN17" s="7"/>
       <c r="AO17" s="7"/>
-      <c r="AP17" s="36">
+      <c r="AP17" s="54">
         <f t="shared" si="2"/>
-        <v>17600</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="18" spans="1:42" x14ac:dyDescent="0.25">
@@ -4533,9 +4323,9 @@
       <c r="AM18" s="7"/>
       <c r="AN18" s="7"/>
       <c r="AO18" s="7"/>
-      <c r="AP18" s="36">
+      <c r="AP18" s="54" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="19" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -4583,9 +4373,9 @@
       <c r="AM19" s="7"/>
       <c r="AN19" s="7"/>
       <c r="AO19" s="7"/>
-      <c r="AP19" s="36">
+      <c r="AP19" s="54" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="20" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -4633,9 +4423,9 @@
       <c r="AM20" s="7"/>
       <c r="AN20" s="7"/>
       <c r="AO20" s="7"/>
-      <c r="AP20" s="36">
+      <c r="AP20" s="54" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="21" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -4683,9 +4473,9 @@
       <c r="AM21" s="7"/>
       <c r="AN21" s="7"/>
       <c r="AO21" s="7"/>
-      <c r="AP21" s="36">
+      <c r="AP21" s="54" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="22" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -4733,9 +4523,9 @@
       <c r="AM22" s="7"/>
       <c r="AN22" s="7"/>
       <c r="AO22" s="7"/>
-      <c r="AP22" s="36">
+      <c r="AP22" s="54" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="23" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -4783,9 +4573,9 @@
       <c r="AM23" s="7"/>
       <c r="AN23" s="7"/>
       <c r="AO23" s="7"/>
-      <c r="AP23" s="36">
+      <c r="AP23" s="54" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="24" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -4833,9 +4623,9 @@
       <c r="AM24" s="7"/>
       <c r="AN24" s="7"/>
       <c r="AO24" s="7"/>
-      <c r="AP24" s="36">
+      <c r="AP24" s="54" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="25" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -4883,9 +4673,9 @@
       <c r="AM25" s="7"/>
       <c r="AN25" s="7"/>
       <c r="AO25" s="7"/>
-      <c r="AP25" s="36">
+      <c r="AP25" s="54" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="26" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -4933,9 +4723,9 @@
       <c r="AM26" s="7"/>
       <c r="AN26" s="7"/>
       <c r="AO26" s="7"/>
-      <c r="AP26" s="36">
+      <c r="AP26" s="54" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="27" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -4983,9 +4773,9 @@
       <c r="AM27" s="7"/>
       <c r="AN27" s="7"/>
       <c r="AO27" s="7"/>
-      <c r="AP27" s="36">
+      <c r="AP27" s="54" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="28" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -5033,9 +4823,9 @@
       <c r="AM28" s="7"/>
       <c r="AN28" s="7"/>
       <c r="AO28" s="7"/>
-      <c r="AP28" s="36">
+      <c r="AP28" s="54" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="29" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -5083,9 +4873,9 @@
       <c r="AM29" s="7"/>
       <c r="AN29" s="7"/>
       <c r="AO29" s="7"/>
-      <c r="AP29" s="36">
+      <c r="AP29" s="54" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="30" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -5133,9 +4923,9 @@
       <c r="AM30" s="7"/>
       <c r="AN30" s="7"/>
       <c r="AO30" s="7"/>
-      <c r="AP30" s="36">
+      <c r="AP30" s="54" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="31" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -5183,9 +4973,9 @@
       <c r="AM31" s="7"/>
       <c r="AN31" s="7"/>
       <c r="AO31" s="7"/>
-      <c r="AP31" s="36">
+      <c r="AP31" s="54" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="32" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -5233,9 +5023,9 @@
       <c r="AM32" s="7"/>
       <c r="AN32" s="7"/>
       <c r="AO32" s="7"/>
-      <c r="AP32" s="36">
+      <c r="AP32" s="54" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="33" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -5283,9 +5073,9 @@
       <c r="AM33" s="7"/>
       <c r="AN33" s="7"/>
       <c r="AO33" s="7"/>
-      <c r="AP33" s="36">
+      <c r="AP33" s="54" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="34" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -5333,9 +5123,9 @@
       <c r="AM34" s="7"/>
       <c r="AN34" s="7"/>
       <c r="AO34" s="7"/>
-      <c r="AP34" s="36">
+      <c r="AP34" s="54" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="35" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -5383,9 +5173,9 @@
       <c r="AM35" s="7"/>
       <c r="AN35" s="7"/>
       <c r="AO35" s="7"/>
-      <c r="AP35" s="36">
+      <c r="AP35" s="54" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="36" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -5433,9 +5223,9 @@
       <c r="AM36" s="7"/>
       <c r="AN36" s="7"/>
       <c r="AO36" s="7"/>
-      <c r="AP36" s="36">
+      <c r="AP36" s="54" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="37" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -5483,9 +5273,9 @@
       <c r="AM37" s="7"/>
       <c r="AN37" s="7"/>
       <c r="AO37" s="7"/>
-      <c r="AP37" s="36">
+      <c r="AP37" s="54" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="38" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -5533,9 +5323,9 @@
       <c r="AM38" s="7"/>
       <c r="AN38" s="7"/>
       <c r="AO38" s="7"/>
-      <c r="AP38" s="36">
+      <c r="AP38" s="54" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="39" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -5583,9 +5373,9 @@
       <c r="AM39" s="7"/>
       <c r="AN39" s="7"/>
       <c r="AO39" s="7"/>
-      <c r="AP39" s="36">
+      <c r="AP39" s="54" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="40" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -5633,9 +5423,9 @@
       <c r="AM40" s="7"/>
       <c r="AN40" s="7"/>
       <c r="AO40" s="7"/>
-      <c r="AP40" s="36">
+      <c r="AP40" s="54" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="41" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -5683,9 +5473,9 @@
       <c r="AM41" s="7"/>
       <c r="AN41" s="7"/>
       <c r="AO41" s="7"/>
-      <c r="AP41" s="36">
+      <c r="AP41" s="54" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="42" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -5733,9 +5523,9 @@
       <c r="AM42" s="7"/>
       <c r="AN42" s="7"/>
       <c r="AO42" s="7"/>
-      <c r="AP42" s="36">
+      <c r="AP42" s="54" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="43" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -5783,9 +5573,9 @@
       <c r="AM43" s="7"/>
       <c r="AN43" s="7"/>
       <c r="AO43" s="7"/>
-      <c r="AP43" s="36">
+      <c r="AP43" s="54" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="44" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -5833,9 +5623,9 @@
       <c r="AM44" s="7"/>
       <c r="AN44" s="7"/>
       <c r="AO44" s="7"/>
-      <c r="AP44" s="36">
+      <c r="AP44" s="54" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="45" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -5883,9 +5673,9 @@
       <c r="AM45" s="7"/>
       <c r="AN45" s="7"/>
       <c r="AO45" s="7"/>
-      <c r="AP45" s="36">
+      <c r="AP45" s="54" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="46" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -5933,9 +5723,9 @@
       <c r="AM46" s="7"/>
       <c r="AN46" s="7"/>
       <c r="AO46" s="7"/>
-      <c r="AP46" s="36">
+      <c r="AP46" s="54" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="47" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -5983,9 +5773,9 @@
       <c r="AM47" s="7"/>
       <c r="AN47" s="7"/>
       <c r="AO47" s="7"/>
-      <c r="AP47" s="36">
+      <c r="AP47" s="54" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="48" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -6033,9 +5823,9 @@
       <c r="AM48" s="7"/>
       <c r="AN48" s="7"/>
       <c r="AO48" s="7"/>
-      <c r="AP48" s="36">
+      <c r="AP48" s="54" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="49" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -6083,9 +5873,9 @@
       <c r="AM49" s="7"/>
       <c r="AN49" s="7"/>
       <c r="AO49" s="7"/>
-      <c r="AP49" s="36">
+      <c r="AP49" s="54" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="50" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -6133,9 +5923,9 @@
       <c r="AM50" s="7"/>
       <c r="AN50" s="7"/>
       <c r="AO50" s="7"/>
-      <c r="AP50" s="36">
+      <c r="AP50" s="54" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="51" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -6183,9 +5973,9 @@
       <c r="AM51" s="7"/>
       <c r="AN51" s="7"/>
       <c r="AO51" s="7"/>
-      <c r="AP51" s="36">
+      <c r="AP51" s="54" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="52" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -6233,9 +6023,9 @@
       <c r="AM52" s="7"/>
       <c r="AN52" s="7"/>
       <c r="AO52" s="7"/>
-      <c r="AP52" s="36">
+      <c r="AP52" s="54" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="53" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -6283,9 +6073,9 @@
       <c r="AM53" s="7"/>
       <c r="AN53" s="7"/>
       <c r="AO53" s="7"/>
-      <c r="AP53" s="36">
+      <c r="AP53" s="54" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="54" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -6333,9 +6123,9 @@
       <c r="AM54" s="7"/>
       <c r="AN54" s="7"/>
       <c r="AO54" s="7"/>
-      <c r="AP54" s="36">
+      <c r="AP54" s="54" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="55" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -6383,9 +6173,9 @@
       <c r="AM55" s="7"/>
       <c r="AN55" s="7"/>
       <c r="AO55" s="7"/>
-      <c r="AP55" s="36">
+      <c r="AP55" s="54" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="56" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -6433,9 +6223,9 @@
       <c r="AM56" s="7"/>
       <c r="AN56" s="7"/>
       <c r="AO56" s="7"/>
-      <c r="AP56" s="36">
+      <c r="AP56" s="54" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="57" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -6483,9 +6273,9 @@
       <c r="AM57" s="7"/>
       <c r="AN57" s="7"/>
       <c r="AO57" s="7"/>
-      <c r="AP57" s="36">
+      <c r="AP57" s="54" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="58" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -6533,9 +6323,9 @@
       <c r="AM58" s="7"/>
       <c r="AN58" s="7"/>
       <c r="AO58" s="7"/>
-      <c r="AP58" s="36">
+      <c r="AP58" s="54" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="59" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -6583,9 +6373,9 @@
       <c r="AM59" s="7"/>
       <c r="AN59" s="7"/>
       <c r="AO59" s="7"/>
-      <c r="AP59" s="36">
+      <c r="AP59" s="54" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="60" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -6633,9 +6423,9 @@
       <c r="AM60" s="7"/>
       <c r="AN60" s="7"/>
       <c r="AO60" s="7"/>
-      <c r="AP60" s="36">
+      <c r="AP60" s="54" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="61" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -6683,9 +6473,9 @@
       <c r="AM61" s="7"/>
       <c r="AN61" s="7"/>
       <c r="AO61" s="7"/>
-      <c r="AP61" s="36">
+      <c r="AP61" s="54" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="62" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -6733,9 +6523,9 @@
       <c r="AM62" s="7"/>
       <c r="AN62" s="7"/>
       <c r="AO62" s="7"/>
-      <c r="AP62" s="36">
+      <c r="AP62" s="54" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="63" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -6783,9 +6573,9 @@
       <c r="AM63" s="7"/>
       <c r="AN63" s="7"/>
       <c r="AO63" s="7"/>
-      <c r="AP63" s="36">
+      <c r="AP63" s="54" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="64" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -6833,9 +6623,9 @@
       <c r="AM64" s="7"/>
       <c r="AN64" s="7"/>
       <c r="AO64" s="7"/>
-      <c r="AP64" s="36">
+      <c r="AP64" s="54" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="65" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -6883,9 +6673,9 @@
       <c r="AM65" s="7"/>
       <c r="AN65" s="7"/>
       <c r="AO65" s="7"/>
-      <c r="AP65" s="36">
+      <c r="AP65" s="54" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="66" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -6933,9 +6723,9 @@
       <c r="AM66" s="7"/>
       <c r="AN66" s="7"/>
       <c r="AO66" s="7"/>
-      <c r="AP66" s="36">
+      <c r="AP66" s="54" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="67" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -6983,9 +6773,9 @@
       <c r="AM67" s="7"/>
       <c r="AN67" s="7"/>
       <c r="AO67" s="7"/>
-      <c r="AP67" s="36">
+      <c r="AP67" s="54" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="68" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -7033,9 +6823,9 @@
       <c r="AM68" s="7"/>
       <c r="AN68" s="7"/>
       <c r="AO68" s="7"/>
-      <c r="AP68" s="36">
+      <c r="AP68" s="54" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="69" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -7083,9 +6873,9 @@
       <c r="AM69" s="7"/>
       <c r="AN69" s="7"/>
       <c r="AO69" s="7"/>
-      <c r="AP69" s="36">
+      <c r="AP69" s="54" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="70" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -7133,9 +6923,9 @@
       <c r="AM70" s="7"/>
       <c r="AN70" s="7"/>
       <c r="AO70" s="7"/>
-      <c r="AP70" s="36">
+      <c r="AP70" s="54" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="71" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -7183,9 +6973,9 @@
       <c r="AM71" s="7"/>
       <c r="AN71" s="7"/>
       <c r="AO71" s="7"/>
-      <c r="AP71" s="36">
+      <c r="AP71" s="54" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="72" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -7233,9 +7023,9 @@
       <c r="AM72" s="7"/>
       <c r="AN72" s="7"/>
       <c r="AO72" s="7"/>
-      <c r="AP72" s="36">
-        <f t="shared" ref="AP72:AP106" si="3">SUM(E174:AO174)</f>
-        <v>0</v>
+      <c r="AP72" s="54" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="73" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -7283,9 +7073,9 @@
       <c r="AM73" s="7"/>
       <c r="AN73" s="7"/>
       <c r="AO73" s="7"/>
-      <c r="AP73" s="36">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="AP73" s="54" t="str">
+        <f t="shared" ref="AP73:AP106" si="3">IF(SUM(E175:AO175)=0,"",SUM(E175:AO175))</f>
+        <v/>
       </c>
     </row>
     <row r="74" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -7333,9 +7123,9 @@
       <c r="AM74" s="7"/>
       <c r="AN74" s="7"/>
       <c r="AO74" s="7"/>
-      <c r="AP74" s="36">
+      <c r="AP74" s="54" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="75" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -7383,9 +7173,9 @@
       <c r="AM75" s="7"/>
       <c r="AN75" s="7"/>
       <c r="AO75" s="7"/>
-      <c r="AP75" s="36">
+      <c r="AP75" s="54" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="76" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -7433,9 +7223,9 @@
       <c r="AM76" s="7"/>
       <c r="AN76" s="7"/>
       <c r="AO76" s="7"/>
-      <c r="AP76" s="36">
+      <c r="AP76" s="54" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="77" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -7483,9 +7273,9 @@
       <c r="AM77" s="7"/>
       <c r="AN77" s="7"/>
       <c r="AO77" s="7"/>
-      <c r="AP77" s="36">
+      <c r="AP77" s="54" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="78" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -7533,9 +7323,9 @@
       <c r="AM78" s="7"/>
       <c r="AN78" s="7"/>
       <c r="AO78" s="7"/>
-      <c r="AP78" s="36">
+      <c r="AP78" s="54" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="79" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -7583,9 +7373,9 @@
       <c r="AM79" s="7"/>
       <c r="AN79" s="7"/>
       <c r="AO79" s="7"/>
-      <c r="AP79" s="36">
+      <c r="AP79" s="54" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="80" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -7633,9 +7423,9 @@
       <c r="AM80" s="7"/>
       <c r="AN80" s="7"/>
       <c r="AO80" s="7"/>
-      <c r="AP80" s="36">
+      <c r="AP80" s="54" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="81" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -7683,9 +7473,9 @@
       <c r="AM81" s="7"/>
       <c r="AN81" s="7"/>
       <c r="AO81" s="7"/>
-      <c r="AP81" s="36">
+      <c r="AP81" s="54" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="82" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -7733,9 +7523,9 @@
       <c r="AM82" s="7"/>
       <c r="AN82" s="7"/>
       <c r="AO82" s="7"/>
-      <c r="AP82" s="36">
+      <c r="AP82" s="54" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="83" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -7783,9 +7573,9 @@
       <c r="AM83" s="7"/>
       <c r="AN83" s="7"/>
       <c r="AO83" s="7"/>
-      <c r="AP83" s="36">
+      <c r="AP83" s="54" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="84" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -7833,9 +7623,9 @@
       <c r="AM84" s="7"/>
       <c r="AN84" s="7"/>
       <c r="AO84" s="7"/>
-      <c r="AP84" s="36">
+      <c r="AP84" s="54" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="85" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -7883,9 +7673,9 @@
       <c r="AM85" s="7"/>
       <c r="AN85" s="7"/>
       <c r="AO85" s="7"/>
-      <c r="AP85" s="36">
+      <c r="AP85" s="54" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="86" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -7933,9 +7723,9 @@
       <c r="AM86" s="7"/>
       <c r="AN86" s="7"/>
       <c r="AO86" s="7"/>
-      <c r="AP86" s="36">
+      <c r="AP86" s="54" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="87" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -7983,9 +7773,9 @@
       <c r="AM87" s="7"/>
       <c r="AN87" s="7"/>
       <c r="AO87" s="7"/>
-      <c r="AP87" s="36">
+      <c r="AP87" s="54" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="88" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -8033,9 +7823,9 @@
       <c r="AM88" s="7"/>
       <c r="AN88" s="7"/>
       <c r="AO88" s="7"/>
-      <c r="AP88" s="36">
+      <c r="AP88" s="54" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="89" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -8083,9 +7873,9 @@
       <c r="AM89" s="7"/>
       <c r="AN89" s="7"/>
       <c r="AO89" s="7"/>
-      <c r="AP89" s="36">
+      <c r="AP89" s="54" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="90" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -8133,9 +7923,9 @@
       <c r="AM90" s="7"/>
       <c r="AN90" s="7"/>
       <c r="AO90" s="7"/>
-      <c r="AP90" s="36">
+      <c r="AP90" s="54" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="91" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -8183,9 +7973,9 @@
       <c r="AM91" s="7"/>
       <c r="AN91" s="7"/>
       <c r="AO91" s="7"/>
-      <c r="AP91" s="36">
+      <c r="AP91" s="54" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="92" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -8233,9 +8023,9 @@
       <c r="AM92" s="7"/>
       <c r="AN92" s="7"/>
       <c r="AO92" s="7"/>
-      <c r="AP92" s="36">
+      <c r="AP92" s="54" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="93" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -8283,9 +8073,9 @@
       <c r="AM93" s="7"/>
       <c r="AN93" s="7"/>
       <c r="AO93" s="7"/>
-      <c r="AP93" s="36">
+      <c r="AP93" s="54" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="94" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -8333,9 +8123,9 @@
       <c r="AM94" s="7"/>
       <c r="AN94" s="7"/>
       <c r="AO94" s="7"/>
-      <c r="AP94" s="36">
+      <c r="AP94" s="54" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="95" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -8383,9 +8173,9 @@
       <c r="AM95" s="7"/>
       <c r="AN95" s="7"/>
       <c r="AO95" s="7"/>
-      <c r="AP95" s="36">
+      <c r="AP95" s="54" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="96" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -8433,9 +8223,9 @@
       <c r="AM96" s="7"/>
       <c r="AN96" s="7"/>
       <c r="AO96" s="7"/>
-      <c r="AP96" s="36">
+      <c r="AP96" s="54" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="97" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -8483,9 +8273,9 @@
       <c r="AM97" s="7"/>
       <c r="AN97" s="7"/>
       <c r="AO97" s="7"/>
-      <c r="AP97" s="36">
+      <c r="AP97" s="54" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="98" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -8533,9 +8323,9 @@
       <c r="AM98" s="7"/>
       <c r="AN98" s="7"/>
       <c r="AO98" s="7"/>
-      <c r="AP98" s="36">
+      <c r="AP98" s="54" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="99" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -8583,9 +8373,9 @@
       <c r="AM99" s="7"/>
       <c r="AN99" s="7"/>
       <c r="AO99" s="7"/>
-      <c r="AP99" s="36">
+      <c r="AP99" s="54" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="100" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -8633,9 +8423,9 @@
       <c r="AM100" s="7"/>
       <c r="AN100" s="7"/>
       <c r="AO100" s="7"/>
-      <c r="AP100" s="36">
+      <c r="AP100" s="54" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="101" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -8683,9 +8473,9 @@
       <c r="AM101" s="7"/>
       <c r="AN101" s="7"/>
       <c r="AO101" s="7"/>
-      <c r="AP101" s="36">
+      <c r="AP101" s="54" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="102" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -8733,9 +8523,9 @@
       <c r="AM102" s="7"/>
       <c r="AN102" s="7"/>
       <c r="AO102" s="7"/>
-      <c r="AP102" s="36">
+      <c r="AP102" s="54" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="103" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -8783,9 +8573,9 @@
       <c r="AM103" s="7"/>
       <c r="AN103" s="7"/>
       <c r="AO103" s="7"/>
-      <c r="AP103" s="36">
+      <c r="AP103" s="54" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="104" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -8833,9 +8623,9 @@
       <c r="AM104" s="7"/>
       <c r="AN104" s="7"/>
       <c r="AO104" s="7"/>
-      <c r="AP104" s="36">
+      <c r="AP104" s="54" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="105" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -8883,9 +8673,9 @@
       <c r="AM105" s="7"/>
       <c r="AN105" s="7"/>
       <c r="AO105" s="7"/>
-      <c r="AP105" s="36">
+      <c r="AP105" s="54" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="106" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
@@ -8933,9 +8723,9 @@
       <c r="AM106" s="7"/>
       <c r="AN106" s="7"/>
       <c r="AO106" s="7"/>
-      <c r="AP106" s="36">
+      <c r="AP106" s="54" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="107" spans="1:42" x14ac:dyDescent="0.25">
@@ -8992,45 +8782,45 @@
         <f t="shared" si="4"/>
         <v>51.84</v>
       </c>
-      <c r="Q108" s="35">
+      <c r="Q108" s="35" t="str">
         <f t="shared" si="4"/>
-        <v>51.84</v>
-      </c>
-      <c r="R108" s="35">
+        <v/>
+      </c>
+      <c r="R108" s="35" t="str">
         <f t="shared" si="4"/>
-        <v>51.84</v>
-      </c>
-      <c r="S108" s="35">
+        <v/>
+      </c>
+      <c r="S108" s="35" t="str">
         <f t="shared" si="4"/>
-        <v>51.84</v>
-      </c>
-      <c r="T108" s="35">
+        <v/>
+      </c>
+      <c r="T108" s="35" t="str">
         <f t="shared" si="4"/>
-        <v>51.84</v>
-      </c>
-      <c r="U108" s="35">
+        <v/>
+      </c>
+      <c r="U108" s="35" t="str">
         <f t="shared" si="4"/>
-        <v>51.84</v>
-      </c>
-      <c r="V108" s="35">
+        <v/>
+      </c>
+      <c r="V108" s="35" t="str">
         <f t="shared" si="4"/>
-        <v>51.84</v>
-      </c>
-      <c r="W108" s="35">
+        <v/>
+      </c>
+      <c r="W108" s="35" t="str">
         <f t="shared" si="4"/>
-        <v>51.84</v>
-      </c>
-      <c r="X108" s="35">
+        <v/>
+      </c>
+      <c r="X108" s="35" t="str">
         <f t="shared" si="4"/>
-        <v>51.84</v>
-      </c>
-      <c r="Y108" s="35">
+        <v/>
+      </c>
+      <c r="Y108" s="35" t="str">
         <f t="shared" si="4"/>
-        <v>51.84</v>
-      </c>
-      <c r="Z108" s="35">
+        <v/>
+      </c>
+      <c r="Z108" s="35" t="str">
         <f t="shared" si="4"/>
-        <v>51.84</v>
+        <v/>
       </c>
       <c r="AA108" s="35" t="str">
         <f t="shared" si="4"/>
@@ -9144,43 +8934,43 @@
       </c>
       <c r="Q109" s="9">
         <f>IFERROR($D7*Vlookups!$A$14*Q7,"")</f>
-        <v>4800</v>
+        <v>0</v>
       </c>
       <c r="R109" s="9">
         <f>IFERROR($D7*Vlookups!$A$14*R7,"")</f>
-        <v>4800</v>
+        <v>0</v>
       </c>
       <c r="S109" s="9">
         <f>IFERROR($D7*Vlookups!$A$14*S7,"")</f>
-        <v>4800</v>
+        <v>0</v>
       </c>
       <c r="T109" s="9">
         <f>IFERROR($D7*Vlookups!$A$14*T7,"")</f>
-        <v>4800</v>
+        <v>0</v>
       </c>
       <c r="U109" s="9">
         <f>IFERROR($D7*Vlookups!$A$14*U7,"")</f>
-        <v>4800</v>
+        <v>0</v>
       </c>
       <c r="V109" s="9">
         <f>IFERROR($D7*Vlookups!$A$14*V7,"")</f>
-        <v>4800</v>
+        <v>0</v>
       </c>
       <c r="W109" s="9">
         <f>IFERROR($D7*Vlookups!$A$14*W7,"")</f>
-        <v>4800</v>
+        <v>0</v>
       </c>
       <c r="X109" s="9">
         <f>IFERROR($D7*Vlookups!$A$14*X7,"")</f>
-        <v>4800</v>
+        <v>0</v>
       </c>
       <c r="Y109" s="9">
         <f>IFERROR($D7*Vlookups!$A$14*Y7,"")</f>
-        <v>4800</v>
+        <v>0</v>
       </c>
       <c r="Z109" s="9">
         <f>IFERROR($D7*Vlookups!$A$14*Z7,"")</f>
-        <v>4800</v>
+        <v>0</v>
       </c>
       <c r="AA109" s="9">
         <f>IFERROR($D7*Vlookups!$A$14*AA7,"")</f>
@@ -9294,43 +9084,43 @@
       </c>
       <c r="Q110" s="9">
         <f>IFERROR($D8*Vlookups!$A$14*Q8,"")</f>
-        <v>5600</v>
+        <v>0</v>
       </c>
       <c r="R110" s="9">
         <f>IFERROR($D8*Vlookups!$A$14*R8,"")</f>
-        <v>5600</v>
+        <v>0</v>
       </c>
       <c r="S110" s="9">
         <f>IFERROR($D8*Vlookups!$A$14*S8,"")</f>
-        <v>5600</v>
+        <v>0</v>
       </c>
       <c r="T110" s="9">
         <f>IFERROR($D8*Vlookups!$A$14*T8,"")</f>
-        <v>5600</v>
+        <v>0</v>
       </c>
       <c r="U110" s="9">
         <f>IFERROR($D8*Vlookups!$A$14*U8,"")</f>
-        <v>5600</v>
+        <v>0</v>
       </c>
       <c r="V110" s="9">
         <f>IFERROR($D8*Vlookups!$A$14*V8,"")</f>
-        <v>5600</v>
+        <v>0</v>
       </c>
       <c r="W110" s="9">
         <f>IFERROR($D8*Vlookups!$A$14*W8,"")</f>
-        <v>5600</v>
+        <v>0</v>
       </c>
       <c r="X110" s="9">
         <f>IFERROR($D8*Vlookups!$A$14*X8,"")</f>
-        <v>5600</v>
+        <v>0</v>
       </c>
       <c r="Y110" s="9">
         <f>IFERROR($D8*Vlookups!$A$14*Y8,"")</f>
-        <v>5600</v>
+        <v>0</v>
       </c>
       <c r="Z110" s="9">
         <f>IFERROR($D8*Vlookups!$A$14*Z8,"")</f>
-        <v>5600</v>
+        <v>0</v>
       </c>
       <c r="AA110" s="9">
         <f>IFERROR($D8*Vlookups!$A$14*AA8,"")</f>
@@ -9444,43 +9234,43 @@
       </c>
       <c r="Q111" s="9">
         <f>IFERROR($D9*Vlookups!$A$14*Q9,"")</f>
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="R111" s="9">
         <f>IFERROR($D9*Vlookups!$A$14*R9,"")</f>
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="S111" s="9">
         <f>IFERROR($D9*Vlookups!$A$14*S9,"")</f>
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="T111" s="9">
         <f>IFERROR($D9*Vlookups!$A$14*T9,"")</f>
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="U111" s="9">
         <f>IFERROR($D9*Vlookups!$A$14*U9,"")</f>
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="V111" s="9">
         <f>IFERROR($D9*Vlookups!$A$14*V9,"")</f>
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="W111" s="9">
         <f>IFERROR($D9*Vlookups!$A$14*W9,"")</f>
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="X111" s="9">
         <f>IFERROR($D9*Vlookups!$A$14*X9,"")</f>
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="Y111" s="9">
         <f>IFERROR($D9*Vlookups!$A$14*Y9,"")</f>
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="Z111" s="9">
         <f>IFERROR($D9*Vlookups!$A$14*Z9,"")</f>
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="AA111" s="9">
         <f>IFERROR($D9*Vlookups!$A$14*AA9,"")</f>
@@ -9594,43 +9384,43 @@
       </c>
       <c r="Q112" s="9">
         <f>IFERROR($D10*Vlookups!$A$14*Q10,"")</f>
-        <v>10240</v>
+        <v>0</v>
       </c>
       <c r="R112" s="9">
         <f>IFERROR($D10*Vlookups!$A$14*R10,"")</f>
-        <v>10240</v>
+        <v>0</v>
       </c>
       <c r="S112" s="9">
         <f>IFERROR($D10*Vlookups!$A$14*S10,"")</f>
-        <v>10240</v>
+        <v>0</v>
       </c>
       <c r="T112" s="9">
         <f>IFERROR($D10*Vlookups!$A$14*T10,"")</f>
-        <v>10240</v>
+        <v>0</v>
       </c>
       <c r="U112" s="9">
         <f>IFERROR($D10*Vlookups!$A$14*U10,"")</f>
-        <v>10240</v>
+        <v>0</v>
       </c>
       <c r="V112" s="9">
         <f>IFERROR($D10*Vlookups!$A$14*V10,"")</f>
-        <v>10240</v>
+        <v>0</v>
       </c>
       <c r="W112" s="9">
         <f>IFERROR($D10*Vlookups!$A$14*W10,"")</f>
-        <v>10240</v>
+        <v>0</v>
       </c>
       <c r="X112" s="9">
         <f>IFERROR($D10*Vlookups!$A$14*X10,"")</f>
-        <v>10240</v>
+        <v>0</v>
       </c>
       <c r="Y112" s="9">
         <f>IFERROR($D10*Vlookups!$A$14*Y10,"")</f>
-        <v>10240</v>
+        <v>0</v>
       </c>
       <c r="Z112" s="9">
         <f>IFERROR($D10*Vlookups!$A$14*Z10,"")</f>
-        <v>10240</v>
+        <v>0</v>
       </c>
       <c r="AA112" s="9">
         <f>IFERROR($D10*Vlookups!$A$14*AA10,"")</f>
@@ -9744,43 +9534,43 @@
       </c>
       <c r="Q113" s="9">
         <f>IFERROR($D11*Vlookups!$A$14*Q11,"")</f>
-        <v>10240</v>
+        <v>0</v>
       </c>
       <c r="R113" s="9">
         <f>IFERROR($D11*Vlookups!$A$14*R11,"")</f>
-        <v>10240</v>
+        <v>0</v>
       </c>
       <c r="S113" s="9">
         <f>IFERROR($D11*Vlookups!$A$14*S11,"")</f>
-        <v>10240</v>
+        <v>0</v>
       </c>
       <c r="T113" s="9">
         <f>IFERROR($D11*Vlookups!$A$14*T11,"")</f>
-        <v>10240</v>
+        <v>0</v>
       </c>
       <c r="U113" s="9">
         <f>IFERROR($D11*Vlookups!$A$14*U11,"")</f>
-        <v>10240</v>
+        <v>0</v>
       </c>
       <c r="V113" s="9">
         <f>IFERROR($D11*Vlookups!$A$14*V11,"")</f>
-        <v>10240</v>
+        <v>0</v>
       </c>
       <c r="W113" s="9">
         <f>IFERROR($D11*Vlookups!$A$14*W11,"")</f>
-        <v>10240</v>
+        <v>0</v>
       </c>
       <c r="X113" s="9">
         <f>IFERROR($D11*Vlookups!$A$14*X11,"")</f>
-        <v>10240</v>
+        <v>0</v>
       </c>
       <c r="Y113" s="9">
         <f>IFERROR($D11*Vlookups!$A$14*Y11,"")</f>
-        <v>10240</v>
+        <v>0</v>
       </c>
       <c r="Z113" s="9">
         <f>IFERROR($D11*Vlookups!$A$14*Z11,"")</f>
-        <v>10240</v>
+        <v>0</v>
       </c>
       <c r="AA113" s="9">
         <f>IFERROR($D11*Vlookups!$A$14*AA11,"")</f>
@@ -9894,43 +9684,43 @@
       </c>
       <c r="Q114" s="9">
         <f>IFERROR($D12*Vlookups!$A$14*Q12,"")</f>
-        <v>10240</v>
+        <v>0</v>
       </c>
       <c r="R114" s="9">
         <f>IFERROR($D12*Vlookups!$A$14*R12,"")</f>
-        <v>10240</v>
+        <v>0</v>
       </c>
       <c r="S114" s="9">
         <f>IFERROR($D12*Vlookups!$A$14*S12,"")</f>
-        <v>10240</v>
+        <v>0</v>
       </c>
       <c r="T114" s="9">
         <f>IFERROR($D12*Vlookups!$A$14*T12,"")</f>
-        <v>10240</v>
+        <v>0</v>
       </c>
       <c r="U114" s="9">
         <f>IFERROR($D12*Vlookups!$A$14*U12,"")</f>
-        <v>10240</v>
+        <v>0</v>
       </c>
       <c r="V114" s="9">
         <f>IFERROR($D12*Vlookups!$A$14*V12,"")</f>
-        <v>10240</v>
+        <v>0</v>
       </c>
       <c r="W114" s="9">
         <f>IFERROR($D12*Vlookups!$A$14*W12,"")</f>
-        <v>10240</v>
+        <v>0</v>
       </c>
       <c r="X114" s="9">
         <f>IFERROR($D12*Vlookups!$A$14*X12,"")</f>
-        <v>10240</v>
+        <v>0</v>
       </c>
       <c r="Y114" s="9">
         <f>IFERROR($D12*Vlookups!$A$14*Y12,"")</f>
-        <v>10240</v>
+        <v>0</v>
       </c>
       <c r="Z114" s="9">
         <f>IFERROR($D12*Vlookups!$A$14*Z12,"")</f>
-        <v>10240</v>
+        <v>0</v>
       </c>
       <c r="AA114" s="9">
         <f>IFERROR($D12*Vlookups!$A$14*AA12,"")</f>
@@ -10044,43 +9834,43 @@
       </c>
       <c r="Q115" s="9">
         <f>IFERROR($D13*Vlookups!$A$14*Q13,"")</f>
-        <v>4800</v>
+        <v>0</v>
       </c>
       <c r="R115" s="9">
         <f>IFERROR($D13*Vlookups!$A$14*R13,"")</f>
-        <v>4800</v>
+        <v>0</v>
       </c>
       <c r="S115" s="9">
         <f>IFERROR($D13*Vlookups!$A$14*S13,"")</f>
-        <v>4800</v>
+        <v>0</v>
       </c>
       <c r="T115" s="9">
         <f>IFERROR($D13*Vlookups!$A$14*T13,"")</f>
-        <v>4800</v>
+        <v>0</v>
       </c>
       <c r="U115" s="9">
         <f>IFERROR($D13*Vlookups!$A$14*U13,"")</f>
-        <v>4800</v>
+        <v>0</v>
       </c>
       <c r="V115" s="9">
         <f>IFERROR($D13*Vlookups!$A$14*V13,"")</f>
-        <v>4800</v>
+        <v>0</v>
       </c>
       <c r="W115" s="9">
         <f>IFERROR($D13*Vlookups!$A$14*W13,"")</f>
-        <v>4800</v>
+        <v>0</v>
       </c>
       <c r="X115" s="9">
         <f>IFERROR($D13*Vlookups!$A$14*X13,"")</f>
-        <v>4800</v>
+        <v>0</v>
       </c>
       <c r="Y115" s="9">
         <f>IFERROR($D13*Vlookups!$A$14*Y13,"")</f>
-        <v>4800</v>
+        <v>0</v>
       </c>
       <c r="Z115" s="9">
         <f>IFERROR($D13*Vlookups!$A$14*Z13,"")</f>
-        <v>4800</v>
+        <v>0</v>
       </c>
       <c r="AA115" s="9">
         <f>IFERROR($D13*Vlookups!$A$14*AA13,"")</f>
@@ -10194,43 +9984,43 @@
       </c>
       <c r="Q116" s="9">
         <f>IFERROR($D14*Vlookups!$A$14*Q14,"")</f>
-        <v>640</v>
+        <v>0</v>
       </c>
       <c r="R116" s="9">
         <f>IFERROR($D14*Vlookups!$A$14*R14,"")</f>
-        <v>640</v>
+        <v>0</v>
       </c>
       <c r="S116" s="9">
         <f>IFERROR($D14*Vlookups!$A$14*S14,"")</f>
-        <v>640</v>
+        <v>0</v>
       </c>
       <c r="T116" s="9">
         <f>IFERROR($D14*Vlookups!$A$14*T14,"")</f>
-        <v>640</v>
+        <v>0</v>
       </c>
       <c r="U116" s="9">
         <f>IFERROR($D14*Vlookups!$A$14*U14,"")</f>
-        <v>640</v>
+        <v>0</v>
       </c>
       <c r="V116" s="9">
         <f>IFERROR($D14*Vlookups!$A$14*V14,"")</f>
-        <v>640</v>
+        <v>0</v>
       </c>
       <c r="W116" s="9">
         <f>IFERROR($D14*Vlookups!$A$14*W14,"")</f>
-        <v>640</v>
+        <v>0</v>
       </c>
       <c r="X116" s="9">
         <f>IFERROR($D14*Vlookups!$A$14*X14,"")</f>
-        <v>640</v>
+        <v>0</v>
       </c>
       <c r="Y116" s="9">
         <f>IFERROR($D14*Vlookups!$A$14*Y14,"")</f>
-        <v>640</v>
+        <v>0</v>
       </c>
       <c r="Z116" s="9">
         <f>IFERROR($D14*Vlookups!$A$14*Z14,"")</f>
-        <v>640</v>
+        <v>0</v>
       </c>
       <c r="AA116" s="9">
         <f>IFERROR($D14*Vlookups!$A$14*AA14,"")</f>
@@ -10344,43 +10134,43 @@
       </c>
       <c r="Q117" s="9">
         <f>IFERROR($D15*Vlookups!$A$14*Q15,"")</f>
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="R117" s="9">
         <f>IFERROR($D15*Vlookups!$A$14*R15,"")</f>
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="S117" s="9">
         <f>IFERROR($D15*Vlookups!$A$14*S15,"")</f>
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="T117" s="9">
         <f>IFERROR($D15*Vlookups!$A$14*T15,"")</f>
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="U117" s="9">
         <f>IFERROR($D15*Vlookups!$A$14*U15,"")</f>
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="V117" s="9">
         <f>IFERROR($D15*Vlookups!$A$14*V15,"")</f>
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="W117" s="9">
         <f>IFERROR($D15*Vlookups!$A$14*W15,"")</f>
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="X117" s="9">
         <f>IFERROR($D15*Vlookups!$A$14*X15,"")</f>
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="Y117" s="9">
         <f>IFERROR($D15*Vlookups!$A$14*Y15,"")</f>
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="Z117" s="9">
         <f>IFERROR($D15*Vlookups!$A$14*Z15,"")</f>
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="AA117" s="9">
         <f>IFERROR($D15*Vlookups!$A$14*AA15,"")</f>
@@ -10494,43 +10284,43 @@
       </c>
       <c r="Q118" s="9">
         <f>IFERROR($D16*Vlookups!$A$14*Q16,"")</f>
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="R118" s="9">
         <f>IFERROR($D16*Vlookups!$A$14*R16,"")</f>
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="S118" s="9">
         <f>IFERROR($D16*Vlookups!$A$14*S16,"")</f>
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="T118" s="9">
         <f>IFERROR($D16*Vlookups!$A$14*T16,"")</f>
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="U118" s="9">
         <f>IFERROR($D16*Vlookups!$A$14*U16,"")</f>
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="V118" s="9">
         <f>IFERROR($D16*Vlookups!$A$14*V16,"")</f>
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="W118" s="9">
         <f>IFERROR($D16*Vlookups!$A$14*W16,"")</f>
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="X118" s="9">
         <f>IFERROR($D16*Vlookups!$A$14*X16,"")</f>
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="Y118" s="9">
         <f>IFERROR($D16*Vlookups!$A$14*Y16,"")</f>
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="Z118" s="9">
         <f>IFERROR($D16*Vlookups!$A$14*Z16,"")</f>
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="AA118" s="9">
         <f>IFERROR($D16*Vlookups!$A$14*AA16,"")</f>
@@ -10644,43 +10434,43 @@
       </c>
       <c r="Q119" s="9">
         <f>IFERROR($D17*Vlookups!$A$14*Q17,"")</f>
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="R119" s="9">
         <f>IFERROR($D17*Vlookups!$A$14*R17,"")</f>
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="S119" s="9">
         <f>IFERROR($D17*Vlookups!$A$14*S17,"")</f>
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="T119" s="9">
         <f>IFERROR($D17*Vlookups!$A$14*T17,"")</f>
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="U119" s="9">
         <f>IFERROR($D17*Vlookups!$A$14*U17,"")</f>
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="V119" s="9">
         <f>IFERROR($D17*Vlookups!$A$14*V17,"")</f>
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="W119" s="9">
         <f>IFERROR($D17*Vlookups!$A$14*W17,"")</f>
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="X119" s="9">
         <f>IFERROR($D17*Vlookups!$A$14*X17,"")</f>
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="Y119" s="9">
         <f>IFERROR($D17*Vlookups!$A$14*Y17,"")</f>
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="Z119" s="9">
         <f>IFERROR($D17*Vlookups!$A$14*Z17,"")</f>
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="AA119" s="9">
         <f>IFERROR($D17*Vlookups!$A$14*AA17,"")</f>
@@ -24144,43 +23934,43 @@
       </c>
       <c r="Q209" s="36">
         <f t="shared" si="5"/>
-        <v>51840</v>
+        <v>0</v>
       </c>
       <c r="R209" s="36">
         <f t="shared" si="5"/>
-        <v>51840</v>
+        <v>0</v>
       </c>
       <c r="S209" s="36">
         <f t="shared" si="5"/>
-        <v>51840</v>
+        <v>0</v>
       </c>
       <c r="T209" s="36">
         <f t="shared" si="5"/>
-        <v>51840</v>
+        <v>0</v>
       </c>
       <c r="U209" s="36">
         <f t="shared" si="5"/>
-        <v>51840</v>
+        <v>0</v>
       </c>
       <c r="V209" s="36">
         <f t="shared" si="5"/>
-        <v>51840</v>
+        <v>0</v>
       </c>
       <c r="W209" s="36">
         <f t="shared" si="5"/>
-        <v>51840</v>
+        <v>0</v>
       </c>
       <c r="X209" s="36">
         <f t="shared" si="5"/>
-        <v>51840</v>
+        <v>0</v>
       </c>
       <c r="Y209" s="36">
         <f t="shared" si="5"/>
-        <v>51840</v>
+        <v>0</v>
       </c>
       <c r="Z209" s="36">
         <f t="shared" si="5"/>
-        <v>51840</v>
+        <v>0</v>
       </c>
       <c r="AA209" s="36">
         <f t="shared" si="5"/>
@@ -24294,43 +24084,43 @@
       </c>
       <c r="Q210" s="10">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R210" s="10">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S210" s="10">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T210" s="10">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U210" s="10">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V210" s="10">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W210" s="10">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X210" s="10">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y210" s="10">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z210" s="10">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA210" s="10">
         <f t="shared" si="6"/>
@@ -24443,35 +24233,36 @@
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A229" s="41" t="s">
+      <c r="A229" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B229" s="41"/>
-      <c r="C229" s="41"/>
-      <c r="D229" s="41"/>
-      <c r="E229" s="41"/>
-      <c r="F229" s="41"/>
-      <c r="G229" s="41"/>
-      <c r="H229" s="41"/>
-      <c r="I229" s="41"/>
+      <c r="B229" s="40"/>
+      <c r="C229" s="40"/>
+      <c r="D229" s="40"/>
+      <c r="E229" s="40"/>
+      <c r="F229" s="40"/>
+      <c r="G229" s="40"/>
+      <c r="H229" s="40"/>
+      <c r="I229" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="Q2:R2"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="A229:I229"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="Q2:R2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A229" r:id="rId1" display="See the GNU General Public License for more details (http://www.gnu.org/licenses/)." xr:uid="{2900D115-E58D-405C-B872-4CCBCB9DB761}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
@@ -24526,12 +24317,12 @@
       <c r="B4" s="13">
         <v>60</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="45" t="s">
         <v>541</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="48"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="47"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -24540,10 +24331,10 @@
       <c r="B5" s="13">
         <v>80</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="51"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="50"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -24552,10 +24343,10 @@
       <c r="B6" s="13">
         <v>100</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="51"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="50"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -24564,10 +24355,10 @@
       <c r="B7" s="13">
         <v>70</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="54"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="53"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -24656,14 +24447,14 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="2">
